--- a/biology/Botanique/Cylindropuntia_leptocaulis/Cylindropuntia_leptocaulis.xlsx
+++ b/biology/Botanique/Cylindropuntia_leptocaulis/Cylindropuntia_leptocaulis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cylindropuntia leptocaulis est une espèce de cactus (plante de la famille des Cactaceae). Il est aussi nommé Opuntia leptocaulis.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Ce cactus forme un buisson atteignant en moyenne 90 cm de hauteur[1] (de 50 à 180 cm[2]). Ses branches sont épineuses, ramifiées et emmêlées. Bien que succulentes, ces branches ont un diamètre peu élevé pour un cactus : seulement de 3 à 5 mm[2]. Les épines sont longues de 2,5 à 6,3 cm, de couleur brun-roux ou grise[1]. Ces épines, bien qu'isolées, sont entourées de glochides minuscules, de couleur blanche pouvant tourner au brunâtre ou rougeâtre.
-Appareil reproducteur
-La floraison a lieu entre mai et juin.
-Les fleurs, verdâtres, jaune ou de couleur bronze, sont isolées le long des tiges. Elles mesurent de 1,3 à 1,5 cm de diamètre[1].
-Le fruit, charnu et d'un rouge franc, mesure généralement 1,3 cm de longueur. Il reste sur la plante-mère jusqu'au milieu de l'hiver[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cactus forme un buisson atteignant en moyenne 90 cm de hauteur (de 50 à 180 cm). Ses branches sont épineuses, ramifiées et emmêlées. Bien que succulentes, ces branches ont un diamètre peu élevé pour un cactus : seulement de 3 à 5 mm. Les épines sont longues de 2,5 à 6,3 cm, de couleur brun-roux ou grise. Ces épines, bien qu'isolées, sont entourées de glochides minuscules, de couleur blanche pouvant tourner au brunâtre ou rougeâtre.
 </t>
         </is>
       </c>
@@ -544,13 +557,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette plante vit dans les zones désertiques du sud des États-Unis et du nord du Mexique. La limite nord de son aire de répartition va de l'ouest de l'Arizona au sud de l'Oklahoma.
-Elle pousse dans les déserts et prairies arides.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre mai et juin.
+Les fleurs, verdâtres, jaune ou de couleur bronze, sont isolées le long des tiges. Elles mesurent de 1,3 à 1,5 cm de diamètre.
+Le fruit, charnu et d'un rouge franc, mesure généralement 1,3 cm de longueur. Il reste sur la plante-mère jusqu'au milieu de l'hiver.
 </t>
         </is>
       </c>
@@ -576,10 +596,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante vit dans les zones désertiques du sud des États-Unis et du nord du Mexique. La limite nord de son aire de répartition va de l'ouest de l'Arizona au sud de l'Oklahoma.
+Elle pousse dans les déserts et prairies arides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cylindropuntia_leptocaulis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cylindropuntia_leptocaulis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
